--- a/biology/Botanique/Klebsormidiales/Klebsormidiales.xlsx
+++ b/biology/Botanique/Klebsormidiales/Klebsormidiales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Klebsormidiales sont un ordre d’algues vertes de la classe des Klebsormidiophyceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ordre des Klebsormidiales a été créé en 1975 par les phycologues Kenneth D. Stewart (d) et Karl R. Mattox (d)[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ordre des Klebsormidiales a été créé en 1975 par les phycologues Kenneth D. Stewart (d) et Karl R. Mattox (d),.
 </t>
         </is>
       </c>
@@ -542,16 +556,18 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (25 décembre 2021)[3] et ITIS      (25 décembre 2021)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (25 décembre 2021) et ITIS      (25 décembre 2021) :
 famille des Elakatotrichaceae Hindák
 famille des Klebsormidiaceae K.D.Stewart &amp; K.R.Mattox
-Selon NCBI  (25 décembre 2021)[5] :
+Selon NCBI  (25 décembre 2021) :
 famille des Elakatotrichaceae Hindák, 1965
 famille des Klebsormidiaceae K.D.Stewart &amp; K.R.Mattox, 1975
 Klebsormidiales incertae sedis
-Selon World Register of Marine Species                               (25 décembre 2021)[6] :
+Selon World Register of Marine Species                               (25 décembre 2021) :
 famille des Elakatotrichaceae
 famille des Klebsormidiaceae K.D. Stewart &amp; K.R. Mattox, 1975
 famille des Stichococcaceae</t>
@@ -582,7 +598,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Kenneth D. Stewart et Karl R. Mattox, « Comparative cytology, evolution and classification of the green algae with some consideration of the origin of other organisms with chlorophylls A and B », The Botanical Review, Springer Science+Business Media, vol. 41, no 1,‎ janvier 1975, p. 104-135 (ISSN 0006-8101 et 1874-9372, DOI 10.1007/BF02860837)</t>
         </is>
